--- a/Measurement_Results/TEM/2.5.xlsx
+++ b/Measurement_Results/TEM/2.5.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$K$21:$T$30</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -362,10 +362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:T55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -564,226 +564,519 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17">
         <f>A15/SQRT(A19)</f>
         <v>0.73399373378023769</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19">
         <f>COUNTIF(A1:J10,"&lt;100")</f>
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="H21">
+        <v>14.077</v>
+      </c>
+      <c r="K21">
+        <v>1.98</v>
+      </c>
+      <c r="M21">
+        <v>10.754</v>
+      </c>
+      <c r="P21">
+        <v>4.2919999999999998</v>
+      </c>
+      <c r="R21">
+        <v>2.214</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F22">
+        <v>4.8090000000000002</v>
+      </c>
+      <c r="H22">
+        <v>13.624000000000001</v>
+      </c>
+      <c r="K22">
+        <v>3.0670000000000002</v>
+      </c>
+      <c r="M22">
+        <v>11.339</v>
+      </c>
+      <c r="O22">
+        <v>2.5430000000000001</v>
+      </c>
+      <c r="P22">
+        <v>11.365</v>
+      </c>
+      <c r="R22">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>4.8090000000000002</v>
       </c>
       <c r="C23">
         <v>12.124000000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F23">
+        <v>3.7040000000000002</v>
+      </c>
+      <c r="H23">
+        <v>13.566000000000001</v>
+      </c>
+      <c r="K23">
+        <v>3.2530000000000001</v>
+      </c>
+      <c r="M23">
+        <v>12.092000000000001</v>
+      </c>
+      <c r="N23">
+        <v>2.6560000000000001</v>
+      </c>
+      <c r="O23">
+        <v>3.1309999999999998</v>
+      </c>
+      <c r="P23">
+        <v>13.523</v>
+      </c>
+      <c r="Q23">
+        <v>1.98</v>
+      </c>
+      <c r="R23">
+        <v>2.504</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3.7040000000000002</v>
       </c>
       <c r="C24">
         <v>11.234999999999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F24">
+        <v>3.3420000000000001</v>
+      </c>
+      <c r="H24">
+        <v>13.523</v>
+      </c>
+      <c r="K24">
+        <v>3.3420000000000001</v>
+      </c>
+      <c r="L24">
+        <v>3.8340000000000001</v>
+      </c>
+      <c r="M24">
+        <v>12.945</v>
+      </c>
+      <c r="N24">
+        <v>3.2229999999999999</v>
+      </c>
+      <c r="O24">
+        <v>4.5369999999999999</v>
+      </c>
+      <c r="P24">
+        <v>13.566000000000001</v>
+      </c>
+      <c r="Q24">
+        <v>2.6930000000000001</v>
+      </c>
+      <c r="R24">
+        <v>2.504</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3.2530000000000001</v>
       </c>
       <c r="C25">
         <v>15.728</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F25">
+        <v>3.2530000000000001</v>
+      </c>
+      <c r="H25">
+        <v>11.365</v>
+      </c>
+      <c r="K25">
+        <v>3.7040000000000002</v>
+      </c>
+      <c r="L25">
+        <v>11.234999999999999</v>
+      </c>
+      <c r="M25">
+        <v>13.61</v>
+      </c>
+      <c r="N25">
+        <v>13.93</v>
+      </c>
+      <c r="O25">
+        <v>13.021000000000001</v>
+      </c>
+      <c r="P25">
+        <v>13.624000000000001</v>
+      </c>
+      <c r="Q25">
+        <v>12.801</v>
+      </c>
+      <c r="R25">
+        <v>12.67</v>
+      </c>
+      <c r="S25">
+        <v>13.193</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>3.0670000000000002</v>
       </c>
       <c r="C26">
         <v>13.61</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F26">
+        <v>3.0670000000000002</v>
+      </c>
+      <c r="H26">
+        <v>4.2919999999999998</v>
+      </c>
+      <c r="K26">
+        <v>4.8090000000000002</v>
+      </c>
+      <c r="L26">
+        <v>12.124000000000001</v>
+      </c>
+      <c r="M26">
+        <v>15.728</v>
+      </c>
+      <c r="N26">
+        <v>14.869</v>
+      </c>
+      <c r="O26">
+        <v>13.624000000000001</v>
+      </c>
+      <c r="P26">
+        <v>14.077</v>
+      </c>
+      <c r="Q26">
+        <v>12.042999999999999</v>
+      </c>
+      <c r="R26">
+        <v>12.747</v>
+      </c>
+      <c r="S26">
+        <v>13.348000000000001</v>
+      </c>
+      <c r="T26">
+        <v>13.096</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>3.3420000000000001</v>
       </c>
       <c r="C27">
         <v>12.945</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F27">
+        <v>1.98</v>
+      </c>
+      <c r="H27">
+        <v>3.2530000000000001</v>
+      </c>
+      <c r="M27">
+        <v>3.2829999999999999</v>
+      </c>
+      <c r="P27">
+        <v>3.2530000000000001</v>
+      </c>
+      <c r="R27">
+        <v>2.077</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1.98</v>
       </c>
       <c r="C28">
         <v>12.092000000000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F28">
+        <v>12.124000000000001</v>
+      </c>
+      <c r="H28">
+        <v>3.2229999999999999</v>
+      </c>
+      <c r="P28">
+        <v>3.2229999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>3.8340000000000001</v>
       </c>
       <c r="C29">
         <v>11.339</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F29">
+        <v>11.234999999999999</v>
+      </c>
+      <c r="H29">
+        <v>2.214</v>
+      </c>
+      <c r="P29">
+        <v>2.214</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>3.2829999999999999</v>
       </c>
       <c r="C30">
         <v>10.754</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F30">
+        <v>3.8340000000000001</v>
+      </c>
+      <c r="H30">
+        <v>2.077</v>
+      </c>
+      <c r="P30">
+        <v>2.077</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>3.2229999999999999</v>
       </c>
       <c r="C31">
         <v>14.869</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F31">
+        <v>15.728</v>
+      </c>
+      <c r="H31">
+        <v>12.042999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2.6560000000000001</v>
       </c>
       <c r="C32">
         <v>13.93</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F32">
+        <v>13.61</v>
+      </c>
+      <c r="H32">
+        <v>12.801</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2.5430000000000001</v>
       </c>
       <c r="C33">
         <v>13.624000000000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F33">
+        <v>12.945</v>
+      </c>
+      <c r="H33">
+        <v>2.6930000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>3.1309999999999998</v>
       </c>
       <c r="C34">
         <v>13.021000000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F34">
+        <v>12.092000000000001</v>
+      </c>
+      <c r="H34">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>4.5369999999999999</v>
       </c>
       <c r="C35">
         <v>14.077</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F35">
+        <v>11.339</v>
+      </c>
+      <c r="H35">
+        <v>12.747</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2.214</v>
       </c>
       <c r="C36">
         <v>13.624000000000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F36">
+        <v>10.754</v>
+      </c>
+      <c r="H36">
+        <v>12.67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2.077</v>
       </c>
       <c r="C37">
         <v>13.566000000000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F37">
+        <v>3.2829999999999999</v>
+      </c>
+      <c r="H37">
+        <v>2.504</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>3.2530000000000001</v>
       </c>
       <c r="C38">
         <v>13.523</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F38">
+        <v>14.869</v>
+      </c>
+      <c r="H38">
+        <v>2.504</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>3.2229999999999999</v>
       </c>
       <c r="C39">
         <v>11.365</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F39">
+        <v>13.93</v>
+      </c>
+      <c r="H39">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>4.2919999999999998</v>
       </c>
       <c r="C40">
         <v>12.042999999999999</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F40">
+        <v>3.2229999999999999</v>
+      </c>
+      <c r="H40">
+        <v>2.214</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2.6930000000000001</v>
       </c>
       <c r="C41">
         <v>12.801</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F41">
+        <v>2.6560000000000001</v>
+      </c>
+      <c r="H41">
+        <v>2.077</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1.98</v>
       </c>
       <c r="C42">
         <v>12.747</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F42">
+        <v>13.624000000000001</v>
+      </c>
+      <c r="H42">
+        <v>13.348000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2.6930000000000001</v>
       </c>
       <c r="C43">
         <v>12.67</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F43">
+        <v>13.021000000000001</v>
+      </c>
+      <c r="H43">
+        <v>13.193</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1.98</v>
       </c>
       <c r="C44">
         <v>13.348000000000001</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F44">
+        <v>4.5369999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2.504</v>
       </c>
       <c r="C45">
         <v>13.193</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F45">
+        <v>3.1309999999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2.2999999999999998</v>
       </c>
       <c r="C46">
         <v>13.096</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F46">
+        <v>2.5430000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2.077</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -856,8 +1149,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="H1:H7">
-    <sortCondition descending="1" ref="H1"/>
+  <sortState ref="K21:T30">
+    <sortCondition ref="K21"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Measurement_Results/TEM/2.5.xlsx
+++ b/Measurement_Results/TEM/2.5.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="0" windowWidth="28720" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="80" yWindow="0" windowWidth="14360" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -356,8 +356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
